--- a/output/experiments/simple_debug/Simple_pv_gridS_1.xlsx
+++ b/output/experiments/simple_debug/Simple_pv_gridS_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="56">
   <si>
     <t>simple_pv_exp_alpha</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Simple-unconscious-3-0.6-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-False-True-False-2-0.2-by_execution-2023-09-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-3-0.6-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-2-by_execution-2023-09-28_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-3-0.6-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-2-by_execution-2023-09-28_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-3-0.6-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-2-by_execution-2023-09-28_003.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1255,8 +1264,8 @@
       <c r="J9">
         <v>441.6</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
@@ -1305,6 +1314,9 @@
       </c>
       <c r="AA9" t="s">
         <v>44</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1338,8 +1350,8 @@
       <c r="J10">
         <v>441.6</v>
       </c>
-      <c r="K10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>28</v>
       </c>
       <c r="L10" t="s">
         <v>29</v>
@@ -1388,6 +1400,9 @@
       </c>
       <c r="AA10" t="s">
         <v>44</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1421,8 +1436,8 @@
       <c r="J11">
         <v>441.6</v>
       </c>
-      <c r="K11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>29</v>
@@ -1471,6 +1486,9 @@
       </c>
       <c r="AA11" t="s">
         <v>44</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:28">
